--- a/ReviewKanjiV3/gen/kanjiv2.xlsx
+++ b/ReviewKanjiV3/gen/kanjiv2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\01_LearningJapaneseWebProject\Review_Kanji_V2\Lesson2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\01_LearningJapaneseWebProject\ReviewKanjiV3\gen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8DAFE5D-6522-4B05-A711-3EFD86F658B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F1502E-BA8E-4F4D-B5CF-47C2C9C430FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="1056">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="1057">
   <si>
     <t>japanese</t>
   </si>
@@ -3193,6 +3193,9 @@
   </si>
   <si>
     <t>tình cảm</t>
+  </si>
+  <si>
+    <t>inh</t>
   </si>
 </sst>
 </file>
@@ -3551,10 +3554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D386"/>
+  <dimension ref="A1:F386"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="F156" sqref="F156"/>
+    <sheetView tabSelected="1" topLeftCell="A351" workbookViewId="0">
+      <selection activeCell="B372" sqref="B372"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5153,7 +5156,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="145" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
         <v>428</v>
       </c>
@@ -5164,7 +5167,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="146" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
         <v>429</v>
       </c>
@@ -5175,7 +5178,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="147" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
         <v>430</v>
       </c>
@@ -5186,7 +5189,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="148" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
         <v>431</v>
       </c>
@@ -5197,7 +5200,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="149" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
         <v>432</v>
       </c>
@@ -5208,7 +5211,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="150" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
         <v>433</v>
       </c>
@@ -5219,7 +5222,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="151" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
         <v>434</v>
       </c>
@@ -5230,7 +5233,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="152" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
         <v>1028</v>
       </c>
@@ -5241,7 +5244,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="153" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
         <v>1029</v>
       </c>
@@ -5252,7 +5255,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="154" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
         <v>1030</v>
       </c>
@@ -5263,7 +5266,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="155" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
         <v>1031</v>
       </c>
@@ -5274,7 +5277,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="156" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
         <v>1032</v>
       </c>
@@ -5284,8 +5287,11 @@
       <c r="D156" t="s">
         <v>1046</v>
       </c>
-    </row>
-    <row r="157" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F156" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="157" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
         <v>1033</v>
       </c>
@@ -5296,7 +5302,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="158" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
         <v>1034</v>
       </c>
@@ -5307,7 +5313,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="159" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
         <v>1035</v>
       </c>
@@ -5318,7 +5324,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="160" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
         <v>1036</v>
       </c>
